--- a/data/trans_orig/P56S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P56S3-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D040AEBE-249C-47E6-B5EB-6FF5B8856D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{437974ED-B49E-48C6-A973-76E14831AD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{947F6747-2D78-4A4C-A681-5A22DC907333}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73933FCF-3FBD-4C1A-9B8A-5BA5F35E1191}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{652D6F4D-7C4C-4184-B4E5-F0C8D1789059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F215177-11E9-4BE8-9E31-74A3A4F40343}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4006,7 +4006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4164E3-C8B0-42D2-B00B-A163397FC16F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5D888-1E39-43A9-87D5-F9BEC9FC742E}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7051,7 +7051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06CC1763-A172-4E59-8529-EB2FBDD62B08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0857889C-F790-4B9F-B732-7D304F03B4F0}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P56S3-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P56S3-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{437974ED-B49E-48C6-A973-76E14831AD2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F9E8E3C-9CE7-4AF3-9C4B-7CDCFF3C1198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{73933FCF-3FBD-4C1A-9B8A-5BA5F35E1191}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B785ADB0-A2CA-4D3B-B02D-F133DF634E61}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -157,7 +157,7 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2015 (Tasa respuesta: 0,02%)</t>
+    <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2016 (Tasa respuesta: 0,02%)</t>
   </si>
   <si>
     <t>Población según quien le ayuda cuando tiene dificultades / respuesta 3 en 2023 (Tasa respuesta: 0,51%)</t>
@@ -905,7 +905,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F215177-11E9-4BE8-9E31-74A3A4F40343}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8110E88-DDA7-4ACE-B919-E11B5FDBFAFB}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4006,7 +4006,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E5D888-1E39-43A9-87D5-F9BEC9FC742E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E456DD0-8B19-4CB6-A753-8B40B7320E88}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7051,7 +7051,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0857889C-F790-4B9F-B732-7D304F03B4F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6AC1D43-8899-495C-9A87-1BE1D742100D}">
   <dimension ref="A1:Q67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
